--- a/model/test_dat/project_info.xlsx
+++ b/model/test_dat/project_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="17480" tabRatio="824" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26120" windowHeight="17480" tabRatio="824" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="all_projects.tab" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="cap_limited_projects.tab" sheetId="3" r:id="rId3"/>
     <sheet name="thermal_projects.tab" sheetId="4" r:id="rId4"/>
     <sheet name="projects_specific_costs.tab" sheetId="5" r:id="rId5"/>
+    <sheet name="proj_variable_costs" sheetId="6" r:id="rId6"/>
+    <sheet name="variable_capacity_factors" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="74">
   <si>
     <t>PROJECT</t>
   </si>
@@ -232,9 +234,6 @@
     <t>S-Biomass_IGCC_CCS</t>
   </si>
   <si>
-    <t>generation_technology</t>
-  </si>
-  <si>
     <t>proj_overnight_cost</t>
   </si>
   <si>
@@ -242,6 +241,12 @@
   </si>
   <si>
     <t>proj_variable_om</t>
+  </si>
+  <si>
+    <t>timepoint</t>
+  </si>
+  <si>
+    <t>prj_capacity_factor</t>
   </si>
 </sst>
 </file>
@@ -297,7 +302,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -435,15 +440,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -512,6 +614,54 @@
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -580,6 +730,54 @@
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -911,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A1:E45"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A43" activeCellId="15" sqref="A12 A13 A14 A15 A16 A17 A26 A27 A28 A29 A30 A31 A40 A41 A42 A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2304,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2319,24 +2517,21 @@
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
       <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2349,11 +2544,8 @@
       <c r="D2">
         <v>21390</v>
       </c>
-      <c r="E2">
-        <v>3.4502999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2366,11 +2558,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>28.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2383,11 +2572,8 @@
       <c r="D4">
         <v>5868.3</v>
       </c>
-      <c r="E4">
-        <v>3.4131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2400,11 +2586,8 @@
       <c r="D5">
         <v>4891.8</v>
       </c>
-      <c r="E5">
-        <v>27.806999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2417,11 +2600,8 @@
       <c r="D6">
         <v>21390</v>
       </c>
-      <c r="E6">
-        <v>3.4502999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2434,11 +2614,8 @@
       <c r="D7">
         <v>5868.3</v>
       </c>
-      <c r="E7">
-        <v>3.4131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2451,11 +2628,8 @@
       <c r="D8">
         <v>4891.8</v>
       </c>
-      <c r="E8">
-        <v>27.806999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -2468,11 +2642,8 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>28.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2485,11 +2656,8 @@
       <c r="D10">
         <v>5868.3</v>
       </c>
-      <c r="E10">
-        <v>3.4131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -2502,11 +2670,8 @@
       <c r="D11">
         <v>4891.8</v>
       </c>
-      <c r="E11">
-        <v>27.806999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2519,8 +2684,2447 @@
       <c r="D12">
         <v>4891.8</v>
       </c>
-      <c r="E12">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>3.4502999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>28.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>3.4131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
         <v>27.806999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>3.4502999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>3.4131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>27.806999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>28.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>3.4131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>27.806999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>27.806999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C209"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.64742753421234722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.66448092479843623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.72582433227764243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.64742753421234722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.66448092479843623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.72582433227764243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.37974117397967311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.56170667783667771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.61994043966893875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.73093521706205611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.56170667783667771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.61994043966893875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.73093521706205611</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.41414163568767826</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.59878909927257595</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.60816827040231769</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.80651308700562185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.59878909927257595</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.60816827040231769</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.80651308700562185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.36167504465917438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.58708622031993918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0.63961553262070925</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0.7446426480007553</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.58708622031993918</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0.63961553262070925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0.7446426480007553</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66">
+        <v>13</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0.33620060843879207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0.61470894042501201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0.65797323603103408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0.73664488024681418</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.61470894042501201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0.65797323603103408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77">
+        <v>11</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0.73664488024681418</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79">
+        <v>13</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0.39736795570364136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0.60854368975136997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0.64227847603207344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0.79412827096877714</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.60854368975136997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.64227847603207344</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90">
+        <v>11</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.79412827096877714</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92">
+        <v>13</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0.39196143122416183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.63892708546213439</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0.68290086774855552</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0.72428768465510351</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0.63892708546213439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0.68290086774855552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0.72428768465510351</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0.41255239443890079</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0.57016793766048279</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" s="5">
+        <v>0.65545395367154269</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>51</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111" s="5">
+        <v>0.74954012909524581</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
+      <c r="C112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0.57016793766048279</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+      <c r="C114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115" s="5">
+        <v>0.65545395367154269</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116">
+        <v>11</v>
+      </c>
+      <c r="C116" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117" s="5">
+        <v>0.74954012909524581</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118">
+        <v>13</v>
+      </c>
+      <c r="C118" s="5">
+        <v>0.33818781925847852</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0.57067056130056337</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>52</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" s="5">
+        <v>0.62779516517990619</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>52</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>52</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124" s="5">
+        <v>0.78694689465722445</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+      <c r="C125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>52</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126" s="5">
+        <v>0.57067056130056337</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>52</v>
+      </c>
+      <c r="B127">
+        <v>9</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>52</v>
+      </c>
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128" s="5">
+        <v>0.62779516517990619</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129">
+        <v>11</v>
+      </c>
+      <c r="C129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>52</v>
+      </c>
+      <c r="B130">
+        <v>12</v>
+      </c>
+      <c r="C130" s="5">
+        <v>0.78694689465722445</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131">
+        <v>13</v>
+      </c>
+      <c r="C131" s="5">
+        <v>0.33979107005914072</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>32</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133" s="5">
+        <v>0.61237281387188691</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>32</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" s="5">
+        <v>0.69706612268707935</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137" s="5">
+        <v>0.75499388264648937</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>32</v>
+      </c>
+      <c r="B139">
+        <v>8</v>
+      </c>
+      <c r="C139" s="5">
+        <v>0.61237281387188691</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>32</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>32</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141" s="5">
+        <v>0.69706612268707935</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142">
+        <v>11</v>
+      </c>
+      <c r="C142" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143">
+        <v>12</v>
+      </c>
+      <c r="C143" s="5">
+        <v>0.75499388264648937</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>32</v>
+      </c>
+      <c r="B144">
+        <v>13</v>
+      </c>
+      <c r="C144" s="5">
+        <v>0.37318003372967978</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>33</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>33</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146" s="5">
+        <v>0.6402450113088336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>33</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148" s="5">
+        <v>0.63410889974942897</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150" s="5">
+        <v>0.74292883815866684</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>33</v>
+      </c>
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152">
+        <v>8</v>
+      </c>
+      <c r="C152" s="5">
+        <v>0.6402450113088336</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>33</v>
+      </c>
+      <c r="B153">
+        <v>9</v>
+      </c>
+      <c r="C153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154">
+        <v>10</v>
+      </c>
+      <c r="C154" s="5">
+        <v>0.63410889974942897</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155">
+        <v>11</v>
+      </c>
+      <c r="C155" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>33</v>
+      </c>
+      <c r="B156">
+        <v>12</v>
+      </c>
+      <c r="C156" s="5">
+        <v>0.74292883815866684</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>33</v>
+      </c>
+      <c r="B157">
+        <v>13</v>
+      </c>
+      <c r="C157" s="5">
+        <v>0.40469138097404816</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>24</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>24</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161" s="5">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>24</v>
+      </c>
+      <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="C162" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="C163" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>24</v>
+      </c>
+      <c r="B164">
+        <v>7</v>
+      </c>
+      <c r="C164" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>24</v>
+      </c>
+      <c r="B165">
+        <v>8</v>
+      </c>
+      <c r="C165" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166">
+        <v>9</v>
+      </c>
+      <c r="C166" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167" s="5">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>24</v>
+      </c>
+      <c r="B168">
+        <v>11</v>
+      </c>
+      <c r="C168" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169">
+        <v>12</v>
+      </c>
+      <c r="C169" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>24</v>
+      </c>
+      <c r="B170">
+        <v>13</v>
+      </c>
+      <c r="C170" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>25</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" s="5">
+        <v>0.67881935192258702</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>25</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172" s="5">
+        <v>0.32667769629410276</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>25</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173" s="5">
+        <v>0.71466928523236284</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>25</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174" s="5">
+        <v>0.45713659719206012</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>25</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175" s="5">
+        <v>0.16672031077094876</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>25</v>
+      </c>
+      <c r="B176">
+        <v>6</v>
+      </c>
+      <c r="C176" s="5">
+        <v>0.13180014002827856</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177">
+        <v>7</v>
+      </c>
+      <c r="C177" s="5">
+        <v>0.67881935192258702</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>25</v>
+      </c>
+      <c r="B178">
+        <v>8</v>
+      </c>
+      <c r="C178" s="5">
+        <v>0.32667769629410276</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>25</v>
+      </c>
+      <c r="B179">
+        <v>9</v>
+      </c>
+      <c r="C179" s="5">
+        <v>0.71466928523236284</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>25</v>
+      </c>
+      <c r="B180">
+        <v>10</v>
+      </c>
+      <c r="C180" s="5">
+        <v>0.45713659719206012</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>25</v>
+      </c>
+      <c r="B181">
+        <v>11</v>
+      </c>
+      <c r="C181" s="5">
+        <v>0.16672031077094876</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>25</v>
+      </c>
+      <c r="B182">
+        <v>12</v>
+      </c>
+      <c r="C182" s="5">
+        <v>0.13180014002827856</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>25</v>
+      </c>
+      <c r="B183">
+        <v>13</v>
+      </c>
+      <c r="C183" s="5">
+        <v>0.86918646403347277</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" s="5">
+        <v>0.65922884413861005</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>31</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185" s="5">
+        <v>0.39722318879493668</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186" s="5">
+        <v>0.72505868910682258</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>31</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187" s="5">
+        <v>0.50316950082385625</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>31</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188" s="5">
+        <v>0.21679647412629335</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>31</v>
+      </c>
+      <c r="B189">
+        <v>6</v>
+      </c>
+      <c r="C189" s="5">
+        <v>5.4406764529490559E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>31</v>
+      </c>
+      <c r="B190">
+        <v>7</v>
+      </c>
+      <c r="C190" s="5">
+        <v>0.65922884413861005</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>31</v>
+      </c>
+      <c r="B191">
+        <v>8</v>
+      </c>
+      <c r="C191" s="5">
+        <v>0.39722318879493668</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>31</v>
+      </c>
+      <c r="B192">
+        <v>9</v>
+      </c>
+      <c r="C192" s="5">
+        <v>0.72505868910682258</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>31</v>
+      </c>
+      <c r="B193">
+        <v>10</v>
+      </c>
+      <c r="C193" s="5">
+        <v>0.50316950082385625</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>31</v>
+      </c>
+      <c r="B194">
+        <v>11</v>
+      </c>
+      <c r="C194" s="5">
+        <v>0.21679647412629335</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>31</v>
+      </c>
+      <c r="B195">
+        <v>12</v>
+      </c>
+      <c r="C195" s="5">
+        <v>5.4406764529490559E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>31</v>
+      </c>
+      <c r="B196">
+        <v>13</v>
+      </c>
+      <c r="C196" s="5">
+        <v>0.8016644184670213</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>28</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" s="5">
+        <v>0.62300844462809057</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>28</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198" s="5">
+        <v>0.36230392985110216</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>28</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199" s="5">
+        <v>0.65724391146700978</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+      <c r="C200" s="5">
+        <v>0.47580887635901109</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>28</v>
+      </c>
+      <c r="B201">
+        <v>5</v>
+      </c>
+      <c r="C201" s="5">
+        <v>0.14471834858580823</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>28</v>
+      </c>
+      <c r="B202">
+        <v>6</v>
+      </c>
+      <c r="C202" s="5">
+        <v>5.4973027680250641E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>28</v>
+      </c>
+      <c r="B203">
+        <v>7</v>
+      </c>
+      <c r="C203" s="5">
+        <v>0.62300844462809057</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>28</v>
+      </c>
+      <c r="B204">
+        <v>8</v>
+      </c>
+      <c r="C204" s="5">
+        <v>0.36230392985110216</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>28</v>
+      </c>
+      <c r="B205">
+        <v>9</v>
+      </c>
+      <c r="C205" s="5">
+        <v>0.65724391146700978</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>28</v>
+      </c>
+      <c r="B206">
+        <v>10</v>
+      </c>
+      <c r="C206" s="5">
+        <v>0.47580887635901109</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>28</v>
+      </c>
+      <c r="B207">
+        <v>11</v>
+      </c>
+      <c r="C207" s="5">
+        <v>0.14471834858580823</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>28</v>
+      </c>
+      <c r="B208">
+        <v>12</v>
+      </c>
+      <c r="C208" s="5">
+        <v>5.4973027680250641E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>28</v>
+      </c>
+      <c r="B209">
+        <v>13</v>
+      </c>
+      <c r="C209" s="5">
+        <v>0.85633857584691508</v>
       </c>
     </row>
   </sheetData>
